--- a/Stocks/PVR.xlsx
+++ b/Stocks/PVR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1604.4333333333334</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1367.3444006339762</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1350.7027691786109</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>59.150278155879832</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.6500000000000909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>17.550000000000182</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.15099715099715461</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1397.9428769734468</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-26.582883842202136</v>
       </c>
       <c r="Y67">
         <v>-28.827515770307834</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1265</v>
+      </c>
+      <c r="D83">
+        <v>1284.5</v>
+      </c>
+      <c r="E83">
+        <v>1258.75</v>
+      </c>
+      <c r="F83">
+        <v>1282.6500000000001</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1275.3</v>
+      </c>
+      <c r="H83">
+        <v>1272.1991670389907</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1306.0480860473074</v>
+      </c>
+      <c r="K83">
+        <v>1267.3847783890635</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>44.593903772614382</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>23.900000000000091</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>25.75</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.92815533980582876</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1299.733222639313</v>
+      </c>
+      <c r="W83">
+        <v>1334.7127147691315</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-34.979492129818482</v>
+      </c>
+      <c r="Y83">
+        <v>-30.830808350322123</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1275</v>
+      </c>
+      <c r="D84">
+        <v>1283.55</v>
+      </c>
+      <c r="E84">
+        <v>1253.0999999999999</v>
+      </c>
+      <c r="F84">
+        <v>1263.1500000000001</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1266.5999999999999</v>
+      </c>
+      <c r="H84">
+        <v>1269.3995835194953</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1301.0485113701279</v>
+      </c>
+      <c r="K84">
+        <v>1264.2103831914937</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>35.006616003202964</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>10.050000000000182</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>30.450000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.33004926108374932</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1294.1050345409571</v>
+      </c>
+      <c r="W84">
+        <v>1329.4117729343809</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-35.306738393423757</v>
+      </c>
+      <c r="Y84">
+        <v>-31.725994358942451</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1269.4000000000001</v>
+      </c>
+      <c r="D85">
+        <v>1314</v>
+      </c>
+      <c r="E85">
+        <v>1266.8499999999999</v>
+      </c>
+      <c r="F85">
+        <v>1311.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1297.45</v>
+      </c>
+      <c r="H85">
+        <v>1283.4247917597477</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1303.9266199545439</v>
+      </c>
+      <c r="K85">
+        <v>1264.7969647044952</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>60.996190797540685</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>44.650000000000091</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>47.150000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.94697773064687174</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>1296.7811830731175</v>
+      </c>
+      <c r="W85">
+        <v>1328.0849749392416</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-31.303791866124129</v>
+      </c>
+      <c r="Y85">
+        <v>-31.641553860378785</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1307.9000000000001</v>
+      </c>
+      <c r="D86">
+        <v>1330</v>
+      </c>
+      <c r="E86">
+        <v>1297.0999999999999</v>
+      </c>
+      <c r="F86">
+        <v>1322</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1316.3666666666666</v>
+      </c>
+      <c r="H86">
+        <v>1299.8957292132072</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1309.7207044090896</v>
+      </c>
+      <c r="K86">
+        <v>1271.9754169923851</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.815495418400971</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>24.900000000000091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>32.900000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.75683890577507662</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1300.6610010618688</v>
+      </c>
+      <c r="W86">
+        <v>1327.6342360548533</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-26.973234992984544</v>
+      </c>
+      <c r="Y86">
+        <v>-30.707890086899937</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1322</v>
+      </c>
+      <c r="D87">
+        <v>1350</v>
+      </c>
+      <c r="E87">
+        <v>1309.9000000000001</v>
+      </c>
+      <c r="F87">
+        <v>1328.55</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1329.4833333333333</v>
+      </c>
+      <c r="H87">
+        <v>1314.6895312732704</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1318.6716589848475</v>
+      </c>
+      <c r="K87">
+        <v>1280.4031021051885</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>67.3114407476683</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>18.649999999999864</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>40.099999999999909</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.4650872817955089</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1304.9516162831196</v>
+      </c>
+      <c r="W87">
+        <v>1327.7020704211604</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-22.750454138040823</v>
+      </c>
+      <c r="Y87">
+        <v>-29.116402897128115</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1322</v>
+      </c>
+      <c r="D88">
+        <v>1330.95</v>
+      </c>
+      <c r="E88">
+        <v>1296.1500000000001</v>
+      </c>
+      <c r="F88">
+        <v>1301.05</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1309.3833333333334</v>
+      </c>
+      <c r="H88">
+        <v>1312.0364323033018</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1321.4001792104368</v>
+      </c>
+      <c r="K88">
+        <v>1283.9024127484799</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>49.05033679612918</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.8999999999998636</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>34.799999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.1408045977011457</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1304.3513676241782</v>
+      </c>
+      <c r="W88">
+        <v>1325.727842982556</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-21.376475358377775</v>
+      </c>
+      <c r="Y88">
+        <v>-27.568417389378048</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1310</v>
+      </c>
+      <c r="D89">
+        <v>1310</v>
+      </c>
+      <c r="E89">
+        <v>1285.8</v>
+      </c>
+      <c r="F89">
+        <v>1307</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1300.9333333333334</v>
+      </c>
+      <c r="H89">
+        <v>1306.4848828183176</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1318.866806052562</v>
+      </c>
+      <c r="K89">
+        <v>1284.3240988043733</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>52.53309513836453</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>21.200000000000045</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>24.200000000000045</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.87603305785123986</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1304.7588495281509</v>
+      </c>
+      <c r="W89">
+        <v>1324.3405953542185</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-19.581745826067618</v>
+      </c>
+      <c r="Y89">
+        <v>-25.971083076715964</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1304.0999999999999</v>
+      </c>
+      <c r="D90">
+        <v>1324</v>
+      </c>
+      <c r="E90">
+        <v>1296.75</v>
+      </c>
+      <c r="F90">
+        <v>1310.05</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1310.2666666666667</v>
+      </c>
+      <c r="H90">
+        <v>1308.375774742492</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1320.0075158186594</v>
+      </c>
+      <c r="K90">
+        <v>1287.0854101811792</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>54.524907842881099</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>13.299999999999955</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>27.25</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.48807339449541115</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1305.5728726776661</v>
+      </c>
+      <c r="W90">
+        <v>1323.2820327353875</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-17.709160057721419</v>
+      </c>
+      <c r="Y90">
+        <v>-24.318698472917056</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1310</v>
+      </c>
+      <c r="D91">
+        <v>1338</v>
+      </c>
+      <c r="E91">
+        <v>1303.25</v>
+      </c>
+      <c r="F91">
+        <v>1319.95</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1320.3999999999999</v>
+      </c>
+      <c r="H91">
+        <v>1314.3878873712461</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1324.0058456367351</v>
+      </c>
+      <c r="K91">
+        <v>1290.6775412520283</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>61.140909224360961</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>16.700000000000045</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>34.75</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.48057553956834664</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1307.7847384195636</v>
+      </c>
+      <c r="W91">
+        <v>1323.0352154957291</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-15.250477076165453</v>
+      </c>
+      <c r="Y91">
+        <v>-22.505054193566735</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1322</v>
+      </c>
+      <c r="D92">
+        <v>1374.45</v>
+      </c>
+      <c r="E92">
+        <v>1322</v>
+      </c>
+      <c r="F92">
+        <v>1371</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1355.8166666666666</v>
+      </c>
+      <c r="H92">
+        <v>1335.1022770189563</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1335.2156577174605</v>
+      </c>
+      <c r="K92">
+        <v>1297.6380876404664</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>79.946405370582781</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>49</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>52.450000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.93422306959008494</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>1317.5101632780923</v>
+      </c>
+      <c r="W92">
+        <v>1326.5881624960455</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-9.0779992179532201</v>
+      </c>
+      <c r="Y92">
+        <v>-19.819643198444034</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1378</v>
+      </c>
+      <c r="D93">
+        <v>1388.8</v>
+      </c>
+      <c r="E93">
+        <v>1338.3</v>
+      </c>
+      <c r="F93">
+        <v>1348.9</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1358.6666666666667</v>
+      </c>
+      <c r="H93">
+        <v>1346.8844718428115</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1347.1232893358026</v>
+      </c>
+      <c r="K93">
+        <v>1306.6740681648073</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>63.355108313949614</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>10.600000000000136</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>50.5</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.20990099009901261</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1322.3393689276165</v>
+      </c>
+      <c r="W93">
+        <v>1328.2408912000421</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-5.9015222724256091</v>
+      </c>
+      <c r="Y93">
+        <v>-17.036019013240349</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1349.7</v>
+      </c>
+      <c r="D94">
+        <v>1365</v>
+      </c>
+      <c r="E94">
+        <v>1341</v>
+      </c>
+      <c r="F94">
+        <v>1347.25</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1351.0833333333333</v>
+      </c>
+      <c r="H94">
+        <v>1348.9839025880724</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1351.0958917056244</v>
+      </c>
+      <c r="K94">
+        <v>1314.3020530170722</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>62.151365367802448</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1326.1717737079832</v>
+      </c>
+      <c r="W94">
+        <v>1329.6489733333724</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-3.4771996253891757</v>
+      </c>
+      <c r="Y94">
+        <v>-14.324255135670114</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1349.05</v>
+      </c>
+      <c r="D95">
+        <v>1362.95</v>
+      </c>
+      <c r="E95">
+        <v>1316.05</v>
+      </c>
+      <c r="F95">
+        <v>1327</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1335.3333333333333</v>
+      </c>
+      <c r="H95">
+        <v>1342.1586179607029</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1353.7301379932635</v>
+      </c>
+      <c r="K95">
+        <v>1314.6904856799451</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>48.124279532323719</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>10.950000000000045</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>46.900000000000091</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.23347547974413699</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1326.2991931375243</v>
+      </c>
+      <c r="W95">
+        <v>1329.4527530864559</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-3.1535599489316155</v>
+      </c>
+      <c r="Y95">
+        <v>-12.090116098322415</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1334.7</v>
+      </c>
+      <c r="D96">
+        <v>1345.6</v>
+      </c>
+      <c r="E96">
+        <v>1318</v>
+      </c>
+      <c r="F96">
+        <v>1318.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1327.2833333333333</v>
+      </c>
+      <c r="H96">
+        <v>1334.7209756470181</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1351.9234406614271</v>
+      </c>
+      <c r="K96">
+        <v>1315.4259333066241</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>42.895272238155421</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>27.599999999999909</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>9.0579710144927834E-3</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1325.0608557317514</v>
+      </c>
+      <c r="W96">
+        <v>1328.6229195244962</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-3.562063792744766</v>
+      </c>
+      <c r="Y96">
+        <v>-10.384505637206885</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1325</v>
+      </c>
+      <c r="D97">
+        <v>1357</v>
+      </c>
+      <c r="E97">
+        <v>1310</v>
+      </c>
+      <c r="F97">
+        <v>1335.35</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1334.1166666666666</v>
+      </c>
+      <c r="H97">
+        <v>1334.4188211568423</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1353.0515649588876</v>
+      </c>
+      <c r="K97">
+        <v>1314.2201703495964</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>54.873329157414886</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>25.349999999999909</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>47</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.53936170212765766</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1326.6438010037896</v>
+      </c>
+      <c r="W97">
+        <v>1329.1212217819409</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2.4774207781513269</v>
+      </c>
+      <c r="Y97">
+        <v>-8.8030886653957729</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1348</v>
+      </c>
+      <c r="D98">
+        <v>1355</v>
+      </c>
+      <c r="E98">
+        <v>1321.65</v>
+      </c>
+      <c r="F98">
+        <v>1334.25</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1336.9666666666667</v>
+      </c>
+      <c r="H98">
+        <v>1335.6927439117544</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1353.4845505235792</v>
+      </c>
+      <c r="K98">
+        <v>1315.8712436052417</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>53.963167927390806</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>12.599999999999909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>33.349999999999909</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.37781109445277189</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1327.813985464745</v>
+      </c>
+      <c r="W98">
+        <v>1329.501131279575</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-1.6871458148300462</v>
+      </c>
+      <c r="Y98">
+        <v>-7.3799000952826272</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1335</v>
+      </c>
+      <c r="D99">
+        <v>1350</v>
+      </c>
+      <c r="E99">
+        <v>1320.1</v>
+      </c>
+      <c r="F99">
+        <v>1339</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1336.3666666666666</v>
+      </c>
+      <c r="H99">
+        <v>1336.0297052892106</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1352.7102059627839</v>
+      </c>
+      <c r="K99">
+        <v>1316.8109672485214</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>57.746149703737693</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>18.900000000000091</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>29.900000000000091</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.63210702341137237</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1329.5349107778611</v>
+      </c>
+      <c r="W99">
+        <v>1330.2047511847916</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.66984040693046154</v>
+      </c>
+      <c r="Y99">
+        <v>-6.0378881576121941</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1338.15</v>
+      </c>
+      <c r="D100">
+        <v>1347.2</v>
+      </c>
+      <c r="E100">
+        <v>1300</v>
+      </c>
+      <c r="F100">
+        <v>1308</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1318.3999999999999</v>
+      </c>
+      <c r="H100">
+        <v>1327.2148526446053</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1351.485715748832</v>
+      </c>
+      <c r="K100">
+        <v>1313.07519674885</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>34.571117903785485</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>47.200000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.16949152542372864</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>1326.2218475812672</v>
+      </c>
+      <c r="W100">
+        <v>1328.5599548007328</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-2.3381072194656554</v>
+      </c>
+      <c r="Y100">
+        <v>-5.2979319699828862</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1315.9</v>
+      </c>
+      <c r="D101">
+        <v>1324.95</v>
+      </c>
+      <c r="E101">
+        <v>1275.75</v>
+      </c>
+      <c r="F101">
+        <v>1282.45</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1294.3833333333332</v>
+      </c>
+      <c r="H101">
+        <v>1310.7990929889693</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1345.5888900268694</v>
+      </c>
+      <c r="K101">
+        <v>1304.7807085824388</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>24.458454683611375</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>6.7000000000000455</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>49.200000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.13617886178861868</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>1319.4877171841492</v>
+      </c>
+      <c r="W101">
+        <v>1325.1444025932713</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-5.6566854091220193</v>
+      </c>
+      <c r="Y101">
+        <v>-5.3696826578107126</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1274</v>
+      </c>
+      <c r="D102">
+        <v>1274</v>
+      </c>
+      <c r="E102">
+        <v>1209.4000000000001</v>
+      </c>
+      <c r="F102">
+        <v>1224.9000000000001</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1236.1000000000001</v>
+      </c>
+      <c r="H102">
+        <v>1273.4495464944848</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1329.6802477986762</v>
+      </c>
+      <c r="K102">
+        <v>1283.584995564119</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>13.412178712005648</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>15.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>64.599999999999909</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.23993808049535637</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1304.9357606942801</v>
+      </c>
+      <c r="W102">
+        <v>1317.718891290066</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-12.783130595785906</v>
+      </c>
+      <c r="Y102">
+        <v>-6.8523722454057516</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1228.7</v>
+      </c>
+      <c r="D103">
+        <v>1228.7</v>
+      </c>
+      <c r="E103">
+        <v>1166.6500000000001</v>
+      </c>
+      <c r="F103">
+        <v>1211.3499999999999</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1202.2333333333333</v>
+      </c>
+      <c r="H103">
+        <v>1237.8414399139092</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1307.2401927323037</v>
+      </c>
+      <c r="K103">
+        <v>1257.5994409943148</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>11.838591267672319</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>44.699999999999818</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>62.049999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.72038678485092422</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1290.5379513566986</v>
+      </c>
+      <c r="W103">
+        <v>1309.8397141574685</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-19.301762800769893</v>
+      </c>
+      <c r="Y103">
+        <v>-9.3422503564785799</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1210</v>
+      </c>
+      <c r="D104">
+        <v>1244</v>
+      </c>
+      <c r="E104">
+        <v>1190.25</v>
+      </c>
+      <c r="F104">
+        <v>1201.05</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1211.7666666666667</v>
+      </c>
+      <c r="H104">
+        <v>1224.8040532902878</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1293.1868165695696</v>
+      </c>
+      <c r="K104">
+        <v>1242.6328985511338</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>10.651189714135734</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>10.799999999999955</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>53.75</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.20093023255813869</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1276.7705742248988</v>
+      </c>
+      <c r="W104">
+        <v>1301.7812168124708</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-25.010642587571965</v>
+      </c>
+      <c r="Y104">
+        <v>-12.475928802697258</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="D105">
+        <v>1233.05</v>
+      </c>
+      <c r="E105">
+        <v>1165</v>
+      </c>
+      <c r="F105">
+        <v>1168</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1188.6833333333334</v>
+      </c>
+      <c r="H105">
+        <v>1206.7436933118106</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1279.8230795541097</v>
+      </c>
+      <c r="K105">
+        <v>1225.3811433175485</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>7.5955554220797667</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>68.049999999999955</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>4.408523144746513E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1260.0366397287605</v>
+      </c>
+      <c r="W105">
+        <v>1291.8714970485842</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-31.834857319823641</v>
+      </c>
+      <c r="Y105">
+        <v>-16.347714506122536</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1225.3</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1207.05</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1199.05</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1177.9000000000001</v>
+      </c>
+      <c r="D106">
+        <v>1205.95</v>
+      </c>
+      <c r="E106">
+        <v>1142.05</v>
+      </c>
+      <c r="F106">
+        <v>1188</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1178.6666666666667</v>
+      </c>
+      <c r="H106">
+        <v>1192.7051799892388</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1263.4068396531964</v>
+      </c>
+      <c r="K106">
+        <v>1206.8631114692043</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>24.072319796493975</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>45.950000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>63.900000000000091</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.71909233176838783</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1248.9540797704897</v>
+      </c>
+      <c r="W106">
+        <v>1284.1773120820224</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-35.223232311532684</v>
+      </c>
+      <c r="Y106">
+        <v>-20.122818067204566</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1202</v>
+      </c>
+      <c r="D107">
+        <v>1232.9000000000001</v>
+      </c>
+      <c r="E107">
+        <v>1186</v>
+      </c>
+      <c r="F107">
+        <v>1212</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1210.3</v>
+      </c>
+      <c r="H107">
+        <v>1201.5025899946195</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1256.6275419524861</v>
+      </c>
+      <c r="K107">
+        <v>1202.2268644760479</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>40.094948684241217</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>46.900000000000091</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.55437100213219503</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1243.2688367288758</v>
+      </c>
+      <c r="W107">
+        <v>1278.8308445203911</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-35.562007791515271</v>
+      </c>
+      <c r="Y107">
+        <v>-23.210656012066707</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
